--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
+    <sheet name="Inhibition" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -900,7 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1329,4 +1332,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>11527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>9647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
+        <v>10946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>9341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Example" sheetId="1" r:id="rId1"/>
+    <sheet name="Dose_Resp" sheetId="1" r:id="rId1"/>
     <sheet name="Inhibition" sheetId="2" r:id="rId2"/>
+    <sheet name="Linear" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -543,74 +544,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -622,7 +555,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0C0C0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1338,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1460,4 +1393,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>38.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="9090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dose_Resp" sheetId="1" r:id="rId1"/>
     <sheet name="Inhibition" sheetId="2" r:id="rId2"/>
     <sheet name="Linear" sheetId="3" r:id="rId3"/>
+    <sheet name="GHK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +545,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -622,6 +628,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -656,6 +663,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -831,16 +839,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3000</v>
       </c>
@@ -872,7 +880,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30000</v>
       </c>
@@ -904,7 +912,7 @@
         <v>9276</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -936,7 +944,7 @@
         <v>9165</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -968,7 +976,7 @@
         <v>6183</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300</v>
       </c>
@@ -1032,7 +1040,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3000</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30000</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>9492</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3000</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>9284</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3000</v>
       </c>
@@ -1246,7 +1254,7 @@
         <v>9674</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>10000</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>1000</v>
       </c>
@@ -1268,16 +1276,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>11527</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>10349</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>9647</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1341,7 +1349,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>10023</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>10946</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>9025</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1381,7 +1389,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1396,93 +1404,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>38.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>-8.42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-7.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>14.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-7.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>11.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>25.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>13.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-4.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>25.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>38.86</v>
+        <v>-2.16</v>
       </c>
     </row>
   </sheetData>
